--- a/Data/GazetteerSqKm/GazetteerCombinedAdminLevels/PSE_AdminBoundaries_TabularData.xlsx
+++ b/Data/GazetteerSqKm/GazetteerCombinedAdminLevels/PSE_AdminBoundaries_TabularData.xlsx
@@ -15,16 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="28">
-  <si>
-    <t>OBJECTID_1</t>
-  </si>
-  <si>
-    <t>OBJECTID__</t>
-  </si>
-  <si>
-    <t>Shape__</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>admin0Name_en</t>
   </si>
@@ -50,28 +41,13 @@
     <t>validTo</t>
   </si>
   <si>
-    <t>Shape_Length</t>
-  </si>
-  <si>
-    <t>Shape_Area</t>
-  </si>
-  <si>
-    <t>OBJECTID</t>
-  </si>
-  <si>
     <t>Area_SqKm</t>
   </si>
   <si>
-    <t>Polygon</t>
-  </si>
-  <si>
     <t>State of Palestine (the)</t>
   </si>
   <si>
     <t>PS</t>
-  </si>
-  <si>
-    <t>&lt;Null&gt;</t>
   </si>
   <si>
     <t>admin1Name_en</t>
@@ -460,13 +436,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -494,69 +482,21 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="2">
+      <c r="F2" s="2">
         <v>44273</v>
       </c>
-      <c r="J2" s="2">
+      <c r="G2" s="2">
         <v>44414</v>
       </c>
-      <c r="K2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2">
-        <v>6.000027</v>
-      </c>
-      <c r="M2">
-        <v>0.574014</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
+      <c r="I2">
         <v>6019.6201171875</v>
       </c>
     </row>
@@ -567,168 +507,104 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="8" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>14</v>
+      <c r="H2" s="2">
+        <v>44273</v>
+      </c>
+      <c r="I2" s="2">
+        <v>44414</v>
+      </c>
+      <c r="K2">
+        <v>365.0132751464844</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" t="s">
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="2">
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="2">
         <v>44273</v>
       </c>
-      <c r="L2" s="2">
+      <c r="I3" s="2">
         <v>44414</v>
       </c>
-      <c r="M2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2">
-        <v>1.104387</v>
-      </c>
-      <c r="O2">
-        <v>0.034611</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>365.0132751464844</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="2">
-        <v>44273</v>
-      </c>
-      <c r="L3" s="2">
-        <v>44414</v>
-      </c>
-      <c r="M3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3">
-        <v>4.89564</v>
-      </c>
-      <c r="O3">
-        <v>0.539403</v>
-      </c>
-      <c r="P3">
-        <v>2</v>
-      </c>
-      <c r="Q3">
+      <c r="K3">
         <v>5654.60693359375</v>
       </c>
     </row>

--- a/Data/GazetteerSqKm/GazetteerCombinedAdminLevels/PSE_AdminBoundaries_TabularData.xlsx
+++ b/Data/GazetteerSqKm/GazetteerCombinedAdminLevels/PSE_AdminBoundaries_TabularData.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Admin0" sheetId="1" r:id="rId1"/>
-    <sheet name="Admin1" sheetId="2" r:id="rId2"/>
+    <sheet name="ADM0" sheetId="1" r:id="rId1"/>
+    <sheet name="ADM1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -17,31 +17,31 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
-    <t>admin0Name_en</t>
-  </si>
-  <si>
-    <t>admin0Pcode</t>
-  </si>
-  <si>
-    <t>admin0RefName</t>
-  </si>
-  <si>
-    <t>admin0AltName1_en</t>
-  </si>
-  <si>
-    <t>admin0AltName2_en</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>validOn</t>
-  </si>
-  <si>
-    <t>validTo</t>
-  </si>
-  <si>
-    <t>Area_SqKm</t>
+    <t>ADM0_EN</t>
+  </si>
+  <si>
+    <t>ADM0_PCODE</t>
+  </si>
+  <si>
+    <t>ADM0_REF</t>
+  </si>
+  <si>
+    <t>ADM0ALT1_EN</t>
+  </si>
+  <si>
+    <t>ADM0ALT2_EN</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>VALIDON</t>
+  </si>
+  <si>
+    <t>VALIDTO</t>
+  </si>
+  <si>
+    <t>AREA_SQKM</t>
   </si>
   <si>
     <t>State of Palestine (the)</t>
@@ -50,19 +50,19 @@
     <t>PS</t>
   </si>
   <si>
-    <t>admin1Name_en</t>
-  </si>
-  <si>
-    <t>admin1Pcode</t>
-  </si>
-  <si>
-    <t>admin1RefName</t>
-  </si>
-  <si>
-    <t>admin1AltName1_en</t>
-  </si>
-  <si>
-    <t>admin1AltName2_en</t>
+    <t>ADM1_EN</t>
+  </si>
+  <si>
+    <t>ADM1_PCODE</t>
+  </si>
+  <si>
+    <t>ADM1_REF</t>
+  </si>
+  <si>
+    <t>ADM1ALT1_EN</t>
+  </si>
+  <si>
+    <t>ADM1ALT2_EN</t>
   </si>
   <si>
     <t>Gaza Strip</t>
@@ -444,15 +444,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
@@ -515,17 +506,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1"/>
-    <col min="8" max="9" width="10.7109375" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
